--- a/data/air_info/上海-北京.xlsx
+++ b/data/air_info/上海-北京.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\air_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1014605-78A7-4F63-928B-A57731B8B176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBA7421-30D9-4877-BCE5-112EE3A8103D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,24 +33,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="59">
   <si>
-    <t>行程时间：2 小时 15 分钟</t>
-  </si>
-  <si>
     <t>国航商务舱Boeing 777CA 1564</t>
   </si>
   <si>
-    <t>行程时间：2 小时 25 分钟</t>
-  </si>
-  <si>
     <t>国航经济舱Airbus A320CA 8679</t>
   </si>
   <si>
     <t>联航经济舱Boeing 737KN 5978</t>
   </si>
   <si>
-    <t>行程时间：2 小时 5 分钟</t>
-  </si>
-  <si>
     <t>海航经济舱Airbus A330HU 7602</t>
   </si>
   <si>
@@ -63,24 +54,15 @@
     <t>东航经济舱Boeing 777MU 5103</t>
   </si>
   <si>
-    <t>行程时间：2 小时 30 分钟</t>
-  </si>
-  <si>
     <t>东航经济舱Airbus A330MU 5155</t>
   </si>
   <si>
     <t>川航经济舱3U 5137</t>
   </si>
   <si>
-    <t>行程时间：2 小时 40 分钟</t>
-  </si>
-  <si>
     <t>吉祥航空经济舱Airbus A320HO 1251</t>
   </si>
   <si>
-    <t>行程时间：2 小时 10 分钟</t>
-  </si>
-  <si>
     <t>海航经济舱Airbus A330HU 7604</t>
   </si>
   <si>
@@ -90,9 +72,6 @@
     <t>海航经济舱Airbus A330HU 7606</t>
   </si>
   <si>
-    <t>行程时间：2 小时 20 分钟</t>
-  </si>
-  <si>
     <t>国航经济舱Airbus A330CA 1502</t>
   </si>
   <si>
@@ -132,9 +111,6 @@
     <t>国航经济舱Airbus A321CA 8685</t>
   </si>
   <si>
-    <t>行程时间：2 小时</t>
-  </si>
-  <si>
     <t>上航经济舱Boeing 737FM 9101</t>
   </si>
   <si>
@@ -208,7 +184,30 @@
   </si>
   <si>
     <t>机票价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 小时 15 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 25 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 5 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 30 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 10 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 20 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 40 分钟</t>
+  </si>
+  <si>
+    <t>2 小时</t>
   </si>
 </sst>
 </file>
@@ -564,7 +563,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -573,30 +572,29 @@
     <col min="3" max="3" width="29.90625" customWidth="1"/>
     <col min="4" max="5" width="37.26953125" customWidth="1"/>
     <col min="6" max="6" width="45.36328125" customWidth="1"/>
-    <col min="7" max="7" width="17.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -604,23 +602,22 @@
         <v>0.3298611111111111</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2">
         <v>0.4236111111111111</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <f ca="1">RANDBETWEEN(1500,3000)</f>
-        <v>2723</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -628,23 +625,22 @@
         <v>0.34027777777777779</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2">
         <v>0.44097222222222221</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G41" ca="1" si="0">RANDBETWEEN(1500,3000)</f>
-        <v>2476</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -652,23 +648,22 @@
         <v>0.34027777777777779</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2">
         <v>0.44097222222222221</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2022</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -676,23 +671,22 @@
         <v>0.34722222222222221</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2">
         <v>0.43402777777777779</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1789</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -700,23 +694,22 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2">
         <v>0.44791666666666669</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <f t="shared" ca="1" si="0"/>
-        <v>1591</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -724,23 +717,22 @@
         <v>0.37152777777777779</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2">
         <v>0.46527777777777779</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <f t="shared" ca="1" si="0"/>
-        <v>2493</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -748,23 +740,22 @@
         <v>0.375</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2">
         <v>0.46875</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <f t="shared" ca="1" si="0"/>
-        <v>2795</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -772,23 +763,22 @@
         <v>0.4375</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2">
         <v>0.54166666666666663</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="0"/>
-        <v>1839</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -796,23 +786,22 @@
         <v>0.4375</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2">
         <v>0.54166666666666663</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <f t="shared" ca="1" si="0"/>
-        <v>2477</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -820,23 +809,22 @@
         <v>0.46180555555555558</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2">
         <v>0.55555555555555558</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1678</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -844,23 +832,22 @@
         <v>0.46875</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2">
         <v>0.55902777777777779</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <f t="shared" ca="1" si="0"/>
-        <v>1768</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -868,23 +855,22 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2">
         <v>0.56944444444444442</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2774</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -892,23 +878,22 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2">
         <v>0.59722222222222221</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G14">
-        <f t="shared" ca="1" si="0"/>
-        <v>2379</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -916,23 +901,22 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2">
         <v>0.61458333333333337</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G15">
-        <f t="shared" ca="1" si="0"/>
-        <v>2855</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -940,23 +924,22 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2">
         <v>0.63194444444444442</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G16">
-        <f t="shared" ca="1" si="0"/>
-        <v>2320</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -964,23 +947,22 @@
         <v>0.5625</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2">
         <v>0.66319444444444442</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G17">
-        <f t="shared" ca="1" si="0"/>
-        <v>1726</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -988,23 +970,22 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D18" s="2">
         <v>0.69791666666666663</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G18">
-        <f t="shared" ca="1" si="0"/>
-        <v>2732</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1012,23 +993,22 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D19" s="2">
         <v>0.71527777777777779</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G19">
-        <f t="shared" ca="1" si="0"/>
-        <v>2267</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1036,23 +1016,22 @@
         <v>0.64236111111111116</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2">
         <v>0.74652777777777779</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G20">
-        <f t="shared" ca="1" si="0"/>
-        <v>2242</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1060,23 +1039,22 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D21" s="2">
         <v>0.75</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G21">
-        <f t="shared" ca="1" si="0"/>
-        <v>2592</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1084,23 +1062,22 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D22" s="2">
         <v>0.75</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G22">
-        <f t="shared" ca="1" si="0"/>
-        <v>2864</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1108,23 +1085,22 @@
         <v>0.68055555555555558</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D23" s="2">
         <v>0.79166666666666663</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G23">
-        <f t="shared" ca="1" si="0"/>
-        <v>2657</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1132,23 +1108,22 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D24" s="2">
         <v>0.79166666666666663</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G24">
-        <f t="shared" ca="1" si="0"/>
-        <v>2697</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1156,23 +1131,22 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D25" s="2">
         <v>0.80208333333333337</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G25">
-        <f t="shared" ca="1" si="0"/>
-        <v>2392</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1180,23 +1154,22 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D26" s="2">
         <v>0.80208333333333337</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G26">
-        <f t="shared" ca="1" si="0"/>
-        <v>2668</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1204,23 +1177,22 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D27" s="2">
         <v>0.80902777777777779</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G27">
-        <f t="shared" ca="1" si="0"/>
-        <v>1729</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1228,23 +1200,22 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D28" s="2">
         <v>0.8125</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2246</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1252,23 +1223,22 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D29" s="2">
         <v>0.83333333333333337</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G29">
-        <f t="shared" ca="1" si="0"/>
-        <v>1635</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1276,23 +1246,22 @@
         <v>0.75694444444444442</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D30" s="2">
         <v>0.84375</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G30">
-        <f t="shared" ca="1" si="0"/>
-        <v>1733</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1300,23 +1269,22 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D31" s="2">
         <v>0.87152777777777779</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G31">
-        <f t="shared" ca="1" si="0"/>
-        <v>2556</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1324,23 +1292,22 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D32" s="2">
         <v>0.88541666666666663</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G32">
-        <f t="shared" ca="1" si="0"/>
-        <v>2384</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1348,23 +1315,22 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D33" s="2">
         <v>0.88541666666666663</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G33">
-        <f t="shared" ca="1" si="0"/>
-        <v>2597</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1372,23 +1338,22 @@
         <v>0.80902777777777779</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D34" s="2">
         <v>0.90625</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G34">
-        <f t="shared" ca="1" si="0"/>
-        <v>2735</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1396,23 +1361,22 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D35" s="2">
         <v>0.92708333333333337</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G35">
-        <f t="shared" ca="1" si="0"/>
-        <v>2153</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1420,23 +1384,22 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D36" s="2">
         <v>0.91666666666666663</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G36">
-        <f t="shared" ca="1" si="0"/>
-        <v>2447</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1444,23 +1407,22 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D37" s="2">
         <v>0.92361111111111116</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G37">
-        <f t="shared" ca="1" si="0"/>
-        <v>2445</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1468,23 +1430,22 @@
         <v>0.83680555555555558</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D38" s="2">
         <v>0.92708333333333337</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G38">
-        <f t="shared" ca="1" si="0"/>
-        <v>2821</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1492,23 +1453,22 @@
         <v>0.84375</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D39" s="2">
         <v>0.94791666666666663</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G39">
-        <f t="shared" ca="1" si="0"/>
-        <v>1738</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1516,23 +1476,22 @@
         <v>0.86805555555555558</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D40" s="2">
         <v>0.95486111111111116</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G40">
-        <f t="shared" ca="1" si="0"/>
-        <v>2412</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1540,23 +1499,22 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D41" s="2">
         <v>0.98958333333333337</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G41">
-        <f t="shared" ca="1" si="0"/>
-        <v>2631</v>
+        <v>1775</v>
       </c>
     </row>
   </sheetData>
